--- a/data/trans_orig/P16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2533,7 +2533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6491,7 +6491,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5775</v>
+        <v>6408</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003755603224947694</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01168823638716724</v>
+        <v>0.01297085983761126</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11439</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5591</v>
+        <v>5701</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18985</v>
+        <v>18789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02446940026395725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01195890754833656</v>
+        <v>0.01219443245645313</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04061087978618724</v>
+        <v>0.04019157263103614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>13295</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7501</v>
+        <v>7494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21278</v>
+        <v>21069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0138262645198651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007800579672413966</v>
+        <v>0.007793706014746482</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02212889317856359</v>
+        <v>0.02191098408895929</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>492208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488289</v>
+        <v>487656</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9962443967750523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9883117636128329</v>
+        <v>0.9870291401623887</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>456050</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>448504</v>
+        <v>448700</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461898</v>
+        <v>461788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9755305997360427</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9593891202138126</v>
+        <v>0.9598084273689638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9880410924516634</v>
+        <v>0.9878055675435468</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>974</v>
@@ -857,19 +857,19 @@
         <v>948258</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>940275</v>
+        <v>940484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>954052</v>
+        <v>954059</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9861737354801349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9778711068214363</v>
+        <v>0.9780890159110407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.992199420327586</v>
+        <v>0.9922062939852535</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>13091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7212</v>
+        <v>6825</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20318</v>
+        <v>21401</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01779878643679369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009806239046171715</v>
+        <v>0.009279038594199481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02762562848490629</v>
+        <v>0.02909805183415835</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>10188</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4970</v>
+        <v>5345</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17760</v>
+        <v>18693</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01628733997046735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007945067259637506</v>
+        <v>0.008545027798207795</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02839317214038323</v>
+        <v>0.02988491998889157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1003,19 +1003,19 @@
         <v>23278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15072</v>
+        <v>15011</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34286</v>
+        <v>33416</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01710414086144408</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01107471877050358</v>
+        <v>0.01102955755785521</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02519234929396041</v>
+        <v>0.02455302901458185</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>722398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>715171</v>
+        <v>714088</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>728277</v>
+        <v>728664</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9822012135632063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9723743715150936</v>
+        <v>0.9709019481658417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9901937609538283</v>
+        <v>0.9907209614058007</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -1053,19 +1053,19 @@
         <v>615306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>607734</v>
+        <v>606801</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>620524</v>
+        <v>620149</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9837126600295326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9716068278596167</v>
+        <v>0.9701150800111081</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9920549327403625</v>
+        <v>0.9914549722017921</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1270</v>
@@ -1074,19 +1074,19 @@
         <v>1337704</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1326696</v>
+        <v>1327566</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1345910</v>
+        <v>1345971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9828958591385559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9748076507060396</v>
+        <v>0.9754469709854182</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9889252812294964</v>
+        <v>0.9889704424421447</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>8439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4140</v>
+        <v>3819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16843</v>
+        <v>16785</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01323514630456536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006493373914120713</v>
+        <v>0.005989495580500536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02641415524338507</v>
+        <v>0.02632325049891197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1199,19 +1199,19 @@
         <v>27202</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18378</v>
+        <v>17971</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38912</v>
+        <v>39447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03943848104868915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02664539142981214</v>
+        <v>0.02605417893877241</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05641564108318834</v>
+        <v>0.05719098897718034</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1220,19 +1220,19 @@
         <v>35642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25292</v>
+        <v>25239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49476</v>
+        <v>48386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02685100121022891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0190538595859678</v>
+        <v>0.01901365813775624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03727303190828933</v>
+        <v>0.03645162726775977</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>629210</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620806</v>
+        <v>620864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>633509</v>
+        <v>633830</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9867648536954347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9735858447566147</v>
+        <v>0.973676749501088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9935066260858793</v>
+        <v>0.9940105044194995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>632</v>
@@ -1270,19 +1270,19 @@
         <v>662542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>650832</v>
+        <v>650297</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>671366</v>
+        <v>671773</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9605615189513108</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9435843589168111</v>
+        <v>0.9428090110228199</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9733546085701877</v>
+        <v>0.9739458210612276</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1236</v>
@@ -1291,19 +1291,19 @@
         <v>1291752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1277918</v>
+        <v>1279008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1302102</v>
+        <v>1302155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9731489987897711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9627269680917103</v>
+        <v>0.9635483727322403</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9809461404140322</v>
+        <v>0.9809863418622438</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>15544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8827</v>
+        <v>8503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25651</v>
+        <v>25522</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02994188273126321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01700265195098816</v>
+        <v>0.01637823647014828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04940898691210041</v>
+        <v>0.04916183254849039</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1416,19 +1416,19 @@
         <v>35569</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24881</v>
+        <v>25476</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47490</v>
+        <v>47472</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06898063261273635</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04825341370607013</v>
+        <v>0.0494065959331441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0920986419051877</v>
+        <v>0.09206430561832758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1437,19 +1437,19 @@
         <v>51114</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37945</v>
+        <v>38392</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65029</v>
+        <v>65786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04939514135545907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03666978390435614</v>
+        <v>0.03710140774887985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06284290547692183</v>
+        <v>0.06357409576945511</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>503603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493496</v>
+        <v>493625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>510320</v>
+        <v>510644</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9700581172687368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9505910130878997</v>
+        <v>0.9508381674515096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.982997348049012</v>
+        <v>0.9836217635298518</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -1487,19 +1487,19 @@
         <v>480073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>468152</v>
+        <v>468170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>490761</v>
+        <v>490166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9310193673872637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9079013580948122</v>
+        <v>0.9079356943816727</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9517465862939298</v>
+        <v>0.9505934040668559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>937</v>
@@ -1508,19 +1508,19 @@
         <v>983675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>969760</v>
+        <v>969003</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>996844</v>
+        <v>996397</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9506048586445409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9371570945230784</v>
+        <v>0.9364259042305451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9633302160956438</v>
+        <v>0.9628985922511204</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16490</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9668</v>
+        <v>9977</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25603</v>
+        <v>24905</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04264281609588734</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02500062223413309</v>
+        <v>0.02579957652732687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06620849157059137</v>
+        <v>0.06440266101028426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1633,19 +1633,19 @@
         <v>31119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21674</v>
+        <v>22231</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42465</v>
+        <v>43249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07703005756358784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05365077452663933</v>
+        <v>0.05502814828939356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1051140082925475</v>
+        <v>0.1070552444664679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1654,19 +1654,19 @@
         <v>47609</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35025</v>
+        <v>36317</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61699</v>
+        <v>62170</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0602121008273574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04429628425911638</v>
+        <v>0.04593038181788284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07803117588982705</v>
+        <v>0.07862748347031516</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>370220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>361107</v>
+        <v>361805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>377042</v>
+        <v>376733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9573571839041126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9337915084294089</v>
+        <v>0.9355973389897159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9749993777658672</v>
+        <v>0.9742004234726732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>365</v>
@@ -1704,19 +1704,19 @@
         <v>372867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>361521</v>
+        <v>360737</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>382312</v>
+        <v>381755</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9229699424364122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8948859917074524</v>
+        <v>0.8929447555335321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9463492254733606</v>
+        <v>0.9449718517106065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>741</v>
@@ -1725,19 +1725,19 @@
         <v>743087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>728997</v>
+        <v>728526</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>755671</v>
+        <v>754379</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9397878991726426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.921968824110173</v>
+        <v>0.9213725165296851</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9557037157408836</v>
+        <v>0.9540696181821172</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>14528</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8094</v>
+        <v>8580</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22441</v>
+        <v>23744</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04965529029774656</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02766298285188354</v>
+        <v>0.02932403837305713</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07670110491034092</v>
+        <v>0.08115241298958645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -1850,19 +1850,19 @@
         <v>37291</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28006</v>
+        <v>27446</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49107</v>
+        <v>50036</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1087420389100195</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08166652998237683</v>
+        <v>0.08003215801986627</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1431977965893451</v>
+        <v>0.145906859557785</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -1871,19 +1871,19 @@
         <v>51820</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38895</v>
+        <v>39998</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66464</v>
+        <v>66349</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08153933905625631</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06120259555784768</v>
+        <v>0.06293790958532378</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.104582463914589</v>
+        <v>0.1044021641399966</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>278055</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270142</v>
+        <v>268839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284489</v>
+        <v>284003</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9503447097022535</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9232988950896589</v>
+        <v>0.9188475870104139</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9723370171481164</v>
+        <v>0.970675961626943</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -1921,19 +1921,19 @@
         <v>305643</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293827</v>
+        <v>292898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>314928</v>
+        <v>315488</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8912579610899806</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8568022034106548</v>
+        <v>0.8540931404422148</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9183334700176231</v>
+        <v>0.9199678419801337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>619</v>
@@ -1942,19 +1942,19 @@
         <v>583697</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>569053</v>
+        <v>569168</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>596622</v>
+        <v>595519</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9184606609437437</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8954175360854109</v>
+        <v>0.8955978358600039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9387974044421522</v>
+        <v>0.9370620904146763</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>14603</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8156</v>
+        <v>8351</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23497</v>
+        <v>23257</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06957802984960144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03886080023046309</v>
+        <v>0.03978853080307781</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1119524796964494</v>
+        <v>0.1108097571327805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2067,19 +2067,19 @@
         <v>27329</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18383</v>
+        <v>18178</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40549</v>
+        <v>39301</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08184617329225269</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05505463198759727</v>
+        <v>0.05443886935180881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.121438031388749</v>
+        <v>0.1177007252793134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2088,19 +2088,19 @@
         <v>41932</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30117</v>
+        <v>30219</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55157</v>
+        <v>57074</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07711112832521697</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05538338116347155</v>
+        <v>0.05557060662200415</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1014310899797793</v>
+        <v>0.104955649249679</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>195280</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>186386</v>
+        <v>186626</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>201727</v>
+        <v>201532</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9304219701503985</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8880475203035506</v>
+        <v>0.8891902428672198</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.961139199769537</v>
+        <v>0.9602114691969228</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>267</v>
@@ -2138,19 +2138,19 @@
         <v>306579</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>293359</v>
+        <v>294607</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>315525</v>
+        <v>315730</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9181538267077474</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8785619686112509</v>
+        <v>0.8822992747206865</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9449453680124028</v>
+        <v>0.9455611306481911</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>471</v>
@@ -2159,19 +2159,19 @@
         <v>501859</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>488634</v>
+        <v>486717</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>513674</v>
+        <v>513572</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9228888716747831</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8985689100202207</v>
+        <v>0.895044350750321</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9446166188365283</v>
+        <v>0.9444293933779958</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>84552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02581323006838105</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>177</v>
@@ -2284,19 +2284,19 @@
         <v>180138</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05330795268054919</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>262</v>
@@ -2305,19 +2305,19 @@
         <v>264690</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03977475787123594</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3190973</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3172325</v>
+        <v>3171075</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3208522</v>
+        <v>3207969</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9741867699316189</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9684936609587439</v>
+        <v>0.9681119770052193</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9795442829908503</v>
+        <v>0.9793754554909468</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3120</v>
@@ -2355,19 +2355,19 @@
         <v>3199059</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3171903</v>
+        <v>3168958</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3222547</v>
+        <v>3223251</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9466920473194508</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9386557094669123</v>
+        <v>0.9377842884865669</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9536428713444837</v>
+        <v>0.9538511697895315</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6248</v>
@@ -2376,19 +2376,19 @@
         <v>6390032</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6359512</v>
+        <v>6355858</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6421416</v>
+        <v>6420607</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.960225242128764</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9556389902468033</v>
+        <v>0.955089976172296</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9649412304989331</v>
+        <v>0.9648197452481996</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>2522</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6801</v>
+        <v>6742</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005566537626421003</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001781044735496503</v>
+        <v>0.001811188619039484</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01501079909244183</v>
+        <v>0.0148792576067711</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2744,19 +2744,19 @@
         <v>3906</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9847</v>
+        <v>9134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009098678302273618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002374176991979476</v>
+        <v>0.002332604950960002</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02293412994893147</v>
+        <v>0.02127432128465172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2765,19 +2765,19 @@
         <v>6429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2880</v>
+        <v>2774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13452</v>
+        <v>12463</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007285044025254362</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003263307251470744</v>
+        <v>0.003143603192722</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01524450842367009</v>
+        <v>0.01412302917508113</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>450583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446304</v>
+        <v>446363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452298</v>
+        <v>452284</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.994433462373579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9849892009075581</v>
+        <v>0.9851207423932289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9982189552645035</v>
+        <v>0.9981888113809605</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>416</v>
@@ -2815,19 +2815,19 @@
         <v>425433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>419492</v>
+        <v>420205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428320</v>
+        <v>428338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9909013216977264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9770658700510685</v>
+        <v>0.978725678715349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9976258230080205</v>
+        <v>0.99766739504904</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>858</v>
@@ -2836,19 +2836,19 @@
         <v>876016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>868993</v>
+        <v>869982</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>879565</v>
+        <v>879671</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9927149559747457</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9847554915763302</v>
+        <v>0.9858769708249193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9967366927485294</v>
+        <v>0.9968563968072781</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>16238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9491</v>
+        <v>9544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29452</v>
+        <v>29595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02366221748745291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01382999191739986</v>
+        <v>0.01390711599858014</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04291763687650858</v>
+        <v>0.04312715933009689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2961,19 +2961,19 @@
         <v>15177</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8741</v>
+        <v>8163</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24192</v>
+        <v>24963</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02491175794239572</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01434850756325896</v>
+        <v>0.01339921163473456</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03971009975054147</v>
+        <v>0.04097604637096347</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2982,19 +2982,19 @@
         <v>31414</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21514</v>
+        <v>20535</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47575</v>
+        <v>44987</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02424984060454011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01660735922152623</v>
+        <v>0.01585173602386236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03672482766081302</v>
+        <v>0.0347267673435039</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>670000</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>656786</v>
+        <v>656643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>676747</v>
+        <v>676694</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9763377825125471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9570823631234914</v>
+        <v>0.9568728406699031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9861700080826001</v>
+        <v>0.9860928840014198</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>556</v>
@@ -3032,19 +3032,19 @@
         <v>594037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>585022</v>
+        <v>584251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>600473</v>
+        <v>601051</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9750882420576042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9602899002494586</v>
+        <v>0.9590239536290364</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9856514924367411</v>
+        <v>0.9866007883652649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1209</v>
@@ -3053,19 +3053,19 @@
         <v>1264037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1247876</v>
+        <v>1250464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1273937</v>
+        <v>1274916</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9757501593954598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.963275172339187</v>
+        <v>0.9652732326564961</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9833926407784738</v>
+        <v>0.9841482639761376</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>19893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11413</v>
+        <v>11105</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32117</v>
+        <v>32094</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0292522325890303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0167818482331511</v>
+        <v>0.01632980837640496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04722648683933508</v>
+        <v>0.04719322856788233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3178,19 +3178,19 @@
         <v>40652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28785</v>
+        <v>29506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53945</v>
+        <v>53918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05750653440044111</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04071957601089553</v>
+        <v>0.0417385622509568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07631059885263622</v>
+        <v>0.07627255903398365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -3199,19 +3199,19 @@
         <v>60546</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46523</v>
+        <v>46256</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78887</v>
+        <v>78683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04365301631203894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03354311445302175</v>
+        <v>0.03335042735713026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05687727546199629</v>
+        <v>0.05673008816908534</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>660161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>647937</v>
+        <v>647960</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668641</v>
+        <v>668949</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9707477674109697</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9527735131606649</v>
+        <v>0.9528067714321182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9832181517668489</v>
+        <v>0.9836701916235951</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>626</v>
@@ -3249,19 +3249,19 @@
         <v>666266</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652973</v>
+        <v>653000</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>678133</v>
+        <v>677412</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9424934655995589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9236894011473638</v>
+        <v>0.9237274409660164</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9592804239891046</v>
+        <v>0.9582614377490435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -3270,19 +3270,19 @@
         <v>1326426</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1308085</v>
+        <v>1308289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1340449</v>
+        <v>1340716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.956346983687961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9431227245380037</v>
+        <v>0.9432699118309147</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9664568855469783</v>
+        <v>0.9666495726428698</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>25695</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16722</v>
+        <v>16327</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38683</v>
+        <v>38131</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04180708549544737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02720702937195335</v>
+        <v>0.02656426674266647</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06293880230511827</v>
+        <v>0.06203953896534811</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -3395,19 +3395,19 @@
         <v>54395</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41032</v>
+        <v>40567</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70074</v>
+        <v>70628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08856066166736924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.066805232348574</v>
+        <v>0.06604693118374569</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1140876146325212</v>
+        <v>0.1149902509546868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -3416,19 +3416,19 @@
         <v>80090</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63479</v>
+        <v>63398</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100358</v>
+        <v>101722</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0651761018495448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05165827575133323</v>
+        <v>0.05159267097542341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08166962697204033</v>
+        <v>0.08277950973670316</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>588922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>575934</v>
+        <v>576486</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>597895</v>
+        <v>598290</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9581929145045526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9370611976948813</v>
+        <v>0.9379604610346516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9727929706280466</v>
+        <v>0.9734357332573333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>489</v>
@@ -3466,19 +3466,19 @@
         <v>559813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>544134</v>
+        <v>543580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>573176</v>
+        <v>573641</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9114393383326308</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8859123853674791</v>
+        <v>0.8850097490453133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9331947676514261</v>
+        <v>0.9339530688162544</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1015</v>
@@ -3487,19 +3487,19 @@
         <v>1148735</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1128467</v>
+        <v>1127103</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1165346</v>
+        <v>1165427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9348238981504552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9183303730279593</v>
+        <v>0.9172204902632963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9483417242486667</v>
+        <v>0.9484073290245766</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>14704</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8567</v>
+        <v>8298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23153</v>
+        <v>23603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03432697988581956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02000068646338443</v>
+        <v>0.01937132219953543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05405309807847766</v>
+        <v>0.0551033090043801</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3612,19 +3612,19 @@
         <v>48145</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35917</v>
+        <v>36485</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61516</v>
+        <v>62046</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1075151545783007</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08020733588938687</v>
+        <v>0.08147716605258472</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1373733864397076</v>
+        <v>0.1385577798463488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -3633,19 +3633,19 @@
         <v>62849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48576</v>
+        <v>48924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79971</v>
+        <v>79977</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0717337045866097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05544246405774771</v>
+        <v>0.05583987581067821</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09127641038307058</v>
+        <v>0.09128325904955427</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>413640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>405191</v>
+        <v>404741</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>419777</v>
+        <v>420046</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9656730201141804</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9459469019215235</v>
+        <v>0.94489669099562</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9799993135366162</v>
+        <v>0.9806286778004646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>360</v>
@@ -3683,19 +3683,19 @@
         <v>399655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>386284</v>
+        <v>385754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>411883</v>
+        <v>411315</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8924848454216994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8626266135602925</v>
+        <v>0.8614422201536512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9197926641106131</v>
+        <v>0.9185228339474157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>738</v>
@@ -3704,19 +3704,19 @@
         <v>813295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>796173</v>
+        <v>796167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>827568</v>
+        <v>827220</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9282662954133903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9087235896169295</v>
+        <v>0.9087167409504461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9445575359422522</v>
+        <v>0.9441601241893218</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>16389</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9090</v>
+        <v>9226</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28194</v>
+        <v>27689</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05290289209543469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02934208628366085</v>
+        <v>0.02978052484234412</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09101145229523262</v>
+        <v>0.08938070901949369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -3829,19 +3829,19 @@
         <v>38452</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27320</v>
+        <v>28183</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50818</v>
+        <v>51802</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1089113889831078</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07737945511636646</v>
+        <v>0.07982570801200173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1439353390594975</v>
+        <v>0.1467237341902648</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -3850,19 +3850,19 @@
         <v>54841</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41227</v>
+        <v>41185</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70731</v>
+        <v>70945</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08273536421632981</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06219731634206208</v>
+        <v>0.06213305853140343</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1067075585205176</v>
+        <v>0.107030791460693</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>293397</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281592</v>
+        <v>282097</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300696</v>
+        <v>300560</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9470971079045654</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9089885477047676</v>
+        <v>0.9106192909805064</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9706579137163391</v>
+        <v>0.9702194751576558</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>304</v>
@@ -3900,19 +3900,19 @@
         <v>314607</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>302241</v>
+        <v>301257</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325739</v>
+        <v>324876</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8910886110168922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8560646609405025</v>
+        <v>0.8532762658097353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9226205448836334</v>
+        <v>0.9201742919879983</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>573</v>
@@ -3921,19 +3921,19 @@
         <v>608004</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>592114</v>
+        <v>591900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>621618</v>
+        <v>621660</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9172646357836702</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8932924414794824</v>
+        <v>0.8929692085393067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.937802683657938</v>
+        <v>0.9378669414685965</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>19344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10987</v>
+        <v>11384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30061</v>
+        <v>31526</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07767441956447534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04411618488469052</v>
+        <v>0.04571315028943665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1207112060657788</v>
+        <v>0.1265912781893178</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -4046,19 +4046,19 @@
         <v>52084</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40117</v>
+        <v>38336</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67068</v>
+        <v>68012</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1346710065720222</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1037286563340169</v>
+        <v>0.09912195184956939</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1734125748109139</v>
+        <v>0.1758535024867569</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -4067,19 +4067,19 @@
         <v>71428</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55429</v>
+        <v>55503</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90498</v>
+        <v>89658</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1123456734566054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08718205358078959</v>
+        <v>0.0872972115523198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1423391672891401</v>
+        <v>0.141018239117364</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>229692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>218975</v>
+        <v>217510</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>238049</v>
+        <v>237652</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9223255804355247</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8792887939342212</v>
+        <v>0.8734087218106821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9558838151153095</v>
+        <v>0.9542868497105634</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>302</v>
@@ -4117,19 +4117,19 @@
         <v>334669</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319685</v>
+        <v>318741</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>346636</v>
+        <v>348417</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8653289934279778</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8265874251890861</v>
+        <v>0.8241464975132441</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8962713436659832</v>
+        <v>0.9008780481504309</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>508</v>
@@ -4138,19 +4138,19 @@
         <v>564361</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>545291</v>
+        <v>546131</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>580360</v>
+        <v>580286</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8876543265433946</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.85766083271086</v>
+        <v>0.8589817608826361</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9128179464192112</v>
+        <v>0.9127027884476806</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>114785</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91480</v>
+        <v>92829</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139574</v>
+        <v>139888</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03355118118953666</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02673937484947642</v>
+        <v>0.02713357235955597</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04079713072250962</v>
+        <v>0.04088874018502649</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>235</v>
@@ -4263,19 +4263,19 @@
         <v>252812</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224840</v>
+        <v>220999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>287162</v>
+        <v>285280</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07126901197491868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06338367757465636</v>
+        <v>0.06230076659572482</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08095250038921865</v>
+        <v>0.08042195249927023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>332</v>
@@ -4284,19 +4284,19 @@
         <v>367597</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>331366</v>
+        <v>329122</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>410136</v>
+        <v>406733</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0527513974962274</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04755216702335444</v>
+        <v>0.0472300922148439</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0588560159562462</v>
+        <v>0.05836757455631206</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3306394</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3281605</v>
+        <v>3281291</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3329699</v>
+        <v>3328350</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9664488188104633</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9592028692774909</v>
+        <v>0.9591112598149736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9732606251505236</v>
+        <v>0.9728664276404442</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3053</v>
@@ -4334,19 +4334,19 @@
         <v>3294480</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3260130</v>
+        <v>3262012</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3322452</v>
+        <v>3326293</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9287309880250814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9190474996107814</v>
+        <v>0.9195780475007299</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9366163224253437</v>
+        <v>0.9376992334042752</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6159</v>
@@ -4355,19 +4355,19 @@
         <v>6600874</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6558335</v>
+        <v>6561738</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6637105</v>
+        <v>6639349</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9472486025037726</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9411439840437532</v>
+        <v>0.941632425443688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9524478329766454</v>
+        <v>0.9527699077851561</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9650</v>
+        <v>8118</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005863191431741618</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02300481497001022</v>
+        <v>0.01935378602398666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4723,19 +4723,19 @@
         <v>8292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3655</v>
+        <v>3786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16614</v>
+        <v>15767</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02095343826511624</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009234302257020465</v>
+        <v>0.009565833248403014</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04198001223179837</v>
+        <v>0.0398400830471269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -4744,19 +4744,19 @@
         <v>10752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4819</v>
+        <v>5457</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18160</v>
+        <v>19962</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0131888891830812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005911740710115948</v>
+        <v>0.006693726145170529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02227613330158827</v>
+        <v>0.02448684143876968</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>417004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409813</v>
+        <v>411345</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9941368085682584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9769951850299903</v>
+        <v>0.9806462139760134</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>387463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>379141</v>
+        <v>379988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>392100</v>
+        <v>391969</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9790465617348838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9580199877682025</v>
+        <v>0.9601599169528732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9907656977429796</v>
+        <v>0.9904341667515971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>787</v>
@@ -4815,19 +4815,19 @@
         <v>804466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>797058</v>
+        <v>795256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>810399</v>
+        <v>809761</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9868111108169189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9777238666984118</v>
+        <v>0.9755131585612304</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9940882592898841</v>
+        <v>0.9933062738548295</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>10954</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5845</v>
+        <v>6008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18951</v>
+        <v>18889</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01855047679147786</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009898602555983509</v>
+        <v>0.01017487024985244</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03209278285471478</v>
+        <v>0.03198853990983753</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -4940,19 +4940,19 @@
         <v>14122</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8406</v>
+        <v>8453</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22524</v>
+        <v>22654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02505912804877925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01491602792889667</v>
+        <v>0.01499958908785243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03996766412525524</v>
+        <v>0.04019911446506916</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4961,19 +4961,19 @@
         <v>25076</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17211</v>
+        <v>16391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36470</v>
+        <v>35046</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02172879771450012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01491365406875962</v>
+        <v>0.01420349510212773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03160199358305527</v>
+        <v>0.03036846337307382</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>579542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>571545</v>
+        <v>571607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>584651</v>
+        <v>584488</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9814495232085222</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9679072171452854</v>
+        <v>0.9680114600901626</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9901013974440165</v>
+        <v>0.9898251297501476</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>564</v>
@@ -5011,19 +5011,19 @@
         <v>549422</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>541020</v>
+        <v>540890</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>555138</v>
+        <v>555091</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9749408719512207</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9600323358747448</v>
+        <v>0.9598008855349306</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9850839720711033</v>
+        <v>0.9850004109121475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1120</v>
@@ -5032,19 +5032,19 @@
         <v>1128964</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1117570</v>
+        <v>1118994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1136829</v>
+        <v>1137649</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9782712022854999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9683980064169447</v>
+        <v>0.9696315366269262</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9850863459312403</v>
+        <v>0.9857965048978723</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>19604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11901</v>
+        <v>11583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29814</v>
+        <v>30178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02929933693556485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01778603222436542</v>
+        <v>0.01731198533434573</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04455832079525273</v>
+        <v>0.04510255516619315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -5157,19 +5157,19 @@
         <v>36370</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26151</v>
+        <v>25567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50147</v>
+        <v>49119</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05499077652595546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03954031848908228</v>
+        <v>0.03865601938245502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07582035870055689</v>
+        <v>0.07426643492887397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -5178,19 +5178,19 @@
         <v>55974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43424</v>
+        <v>43066</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72373</v>
+        <v>73132</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04207061325252966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03263783413264464</v>
+        <v>0.03236837629921661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05439619259738229</v>
+        <v>0.05496650120445565</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>649493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>639283</v>
+        <v>638919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>657196</v>
+        <v>657514</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9707006630644351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9554416792047473</v>
+        <v>0.9548974448338077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9822139677756346</v>
+        <v>0.9826880146656546</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>628</v>
@@ -5228,19 +5228,19 @@
         <v>625016</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>611239</v>
+        <v>612267</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>635235</v>
+        <v>635819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9450092234740446</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9241796412994432</v>
+        <v>0.9257335650711263</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9604596815109179</v>
+        <v>0.9613439806175451</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1248</v>
@@ -5249,19 +5249,19 @@
         <v>1274509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1258110</v>
+        <v>1257351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1287059</v>
+        <v>1287417</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9579293867474703</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9456038074026176</v>
+        <v>0.9450334987955447</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9673621658673552</v>
+        <v>0.9676316237007834</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>26312</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17543</v>
+        <v>17046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39017</v>
+        <v>37655</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04072788097836795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02715453361033588</v>
+        <v>0.02638446586472375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06039375272511032</v>
+        <v>0.05828462295968534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -5374,19 +5374,19 @@
         <v>50151</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36712</v>
+        <v>38377</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66606</v>
+        <v>64516</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07726580681613378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05656025496385623</v>
+        <v>0.0591258468169446</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1026165796066067</v>
+        <v>0.09939722666391762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -5395,19 +5395,19 @@
         <v>76464</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60272</v>
+        <v>60676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96887</v>
+        <v>96654</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05903956573264694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04653726153427861</v>
+        <v>0.04684969306554458</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0748086217141898</v>
+        <v>0.07462898439550317</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>619736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>607031</v>
+        <v>608393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>628505</v>
+        <v>629002</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.959272119021632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9396062472748899</v>
+        <v>0.9417153770403148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9728454663896641</v>
+        <v>0.9736155341352764</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>557</v>
@@ -5445,19 +5445,19 @@
         <v>598926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>582471</v>
+        <v>584561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>612365</v>
+        <v>610700</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9227341931838662</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8973834203933935</v>
+        <v>0.9006027733360825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9434397450361438</v>
+        <v>0.9408741531830555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1114</v>
@@ -5466,19 +5466,19 @@
         <v>1218661</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1198238</v>
+        <v>1198471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1234853</v>
+        <v>1234449</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9409604342673531</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9251913782858103</v>
+        <v>0.9253710156044969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9534627384657215</v>
+        <v>0.9531503069344555</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>29864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19341</v>
+        <v>19309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42675</v>
+        <v>42582</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0624871136493249</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04046912979420686</v>
+        <v>0.04040259412721817</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0892928443401156</v>
+        <v>0.08909893694221431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -5591,19 +5591,19 @@
         <v>65451</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50723</v>
+        <v>50490</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81479</v>
+        <v>81153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1317327864877</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1020893924733618</v>
+        <v>0.1016194638019828</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.163990897945566</v>
+        <v>0.1633352483946956</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -5612,19 +5612,19 @@
         <v>95315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77930</v>
+        <v>77944</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115385</v>
+        <v>114912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09778236205750605</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0799477953197176</v>
+        <v>0.07996135764646453</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1183722836437631</v>
+        <v>0.1178865168690514</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>448054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>435243</v>
+        <v>435336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>458577</v>
+        <v>458609</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9375128863506751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9107071556598836</v>
+        <v>0.9109010630577857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9595308702057929</v>
+        <v>0.9595974058727819</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>375</v>
@@ -5662,19 +5662,19 @@
         <v>431398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>415370</v>
+        <v>415696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>446126</v>
+        <v>446359</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8682672135123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8360091020544336</v>
+        <v>0.8366647516053044</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8979106075266382</v>
+        <v>0.8983805361980165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>773</v>
@@ -5683,19 +5683,19 @@
         <v>879452</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>859382</v>
+        <v>859855</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>896837</v>
+        <v>896823</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.902217637942494</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.881627716356237</v>
+        <v>0.8821134831309486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9200522046802824</v>
+        <v>0.9200386423535355</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>13381</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7587</v>
+        <v>7373</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21993</v>
+        <v>22525</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04002298089653644</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02269172446509092</v>
+        <v>0.0220543483825119</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06578111149436895</v>
+        <v>0.06737255435376091</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -5808,19 +5808,19 @@
         <v>47389</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35916</v>
+        <v>35418</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61612</v>
+        <v>61664</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1254466760412298</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09507628829867051</v>
+        <v>0.09375628554047308</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1630984303799923</v>
+        <v>0.1632351613279234</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -5829,19 +5829,19 @@
         <v>60770</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47429</v>
+        <v>46673</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77452</v>
+        <v>79693</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08533991476583581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06660510498110554</v>
+        <v>0.06554408631504863</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1087664473817387</v>
+        <v>0.1119133931374844</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>320949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312337</v>
+        <v>311805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>326743</v>
+        <v>326957</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9599770191034636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9342188885056311</v>
+        <v>0.932627445646239</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9773082755349091</v>
+        <v>0.9779456516174881</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>308</v>
@@ -5879,19 +5879,19 @@
         <v>330373</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316150</v>
+        <v>316098</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>341846</v>
+        <v>342344</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8745533239587702</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8369015696200075</v>
+        <v>0.8367648386720766</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9049237117013295</v>
+        <v>0.9062437144595268</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>620</v>
@@ -5900,19 +5900,19 @@
         <v>651322</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>634640</v>
+        <v>632399</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>664663</v>
+        <v>665419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9146600852341642</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8912335526182616</v>
+        <v>0.8880866068625157</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9333948950188946</v>
+        <v>0.9344559136849515</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>15591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9693</v>
+        <v>9381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23189</v>
+        <v>24262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06066433531187487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03771809574032583</v>
+        <v>0.03650399198719663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09022833671925816</v>
+        <v>0.09440691013379114</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -6025,19 +6025,19 @@
         <v>48881</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35040</v>
+        <v>35201</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63675</v>
+        <v>66241</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1221505709188957</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08756396893060912</v>
+        <v>0.08796597477436593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1591206081875625</v>
+        <v>0.1655314827615412</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -6046,19 +6046,19 @@
         <v>64471</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49012</v>
+        <v>48923</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82064</v>
+        <v>82400</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09810517662475379</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07458013829588266</v>
+        <v>0.07444493111741218</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1248748444065094</v>
+        <v>0.1253865690655568</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>241407</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233809</v>
+        <v>232736</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247305</v>
+        <v>247617</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9393356646881251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9097716632807418</v>
+        <v>0.9055930898662087</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9622819042596741</v>
+        <v>0.9634960080128033</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>264</v>
@@ -6096,19 +6096,19 @@
         <v>351288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>336494</v>
+        <v>333928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>365129</v>
+        <v>364968</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8778494290811043</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8408793918124373</v>
+        <v>0.8344685172384584</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9124360310693906</v>
+        <v>0.9120340252256338</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>548</v>
@@ -6117,19 +6117,19 @@
         <v>592696</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>575103</v>
+        <v>574767</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>608155</v>
+        <v>608244</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9018948233752462</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8751251555934906</v>
+        <v>0.8746134309344425</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9254198617041174</v>
+        <v>0.9255550688825873</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>118165</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98712</v>
+        <v>98133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>140587</v>
+        <v>141384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03481221709572157</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02908121080103974</v>
+        <v>0.02891074587079791</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0414180542750661</v>
+        <v>0.04165267043984326</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>246</v>
@@ -6242,19 +6242,19 @@
         <v>270657</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>238236</v>
+        <v>238163</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>302886</v>
+        <v>305656</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07635883703637372</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06721206316001878</v>
+        <v>0.06719145952517991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0854514299740696</v>
+        <v>0.08623277123905633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>359</v>
@@ -6263,19 +6263,19 @@
         <v>388822</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>350998</v>
+        <v>352730</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>428115</v>
+        <v>426407</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05603516335786481</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05058417854181586</v>
+        <v>0.05083381690630415</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06169786487479319</v>
+        <v>0.06145175399198887</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3276185</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3253763</v>
+        <v>3252966</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3295638</v>
+        <v>3296217</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9651877829042784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.958581945724934</v>
+        <v>0.9583473295601567</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9709187891989605</v>
+        <v>0.9710892541292019</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3092</v>
@@ -6313,19 +6313,19 @@
         <v>3273885</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3241656</v>
+        <v>3238886</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3306306</v>
+        <v>3306379</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9236411629636263</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9145485700259304</v>
+        <v>0.9137672287609436</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9327879368399812</v>
+        <v>0.9328085404748204</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6210</v>
@@ -6334,19 +6334,19 @@
         <v>6550070</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6510777</v>
+        <v>6512485</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6587894</v>
+        <v>6586162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9439648366421352</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9383021351252068</v>
+        <v>0.9385482460080111</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9494158214581842</v>
+        <v>0.9491661830936957</v>
       </c>
     </row>
     <row r="27">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12354</v>
+        <v>12294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006752315291648529</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03407873591201752</v>
+        <v>0.03391314896165438</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11200</v>
+        <v>12380</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00317769588982335</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01454004550217708</v>
+        <v>0.0160720907354851</v>
       </c>
     </row>
     <row r="5">
@@ -6757,7 +6757,7 @@
         <v>360064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350158</v>
+        <v>350218</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6766,7 +6766,7 @@
         <v>0.9932476847083515</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9659212640879824</v>
+        <v>0.9660868510383456</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6778,16 +6778,16 @@
         <v>767857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>759105</v>
+        <v>757925</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9968223041101768</v>
+        <v>0.9968223041101767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9854599544978229</v>
+        <v>0.9839279092645151</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6882,19 +6882,19 @@
         <v>7302</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2417</v>
+        <v>2612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16912</v>
+        <v>17594</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01531148372209394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005067952004709955</v>
+        <v>0.00547768759562573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03546311273150132</v>
+        <v>0.03689368922380615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -6903,19 +6903,19 @@
         <v>9890</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4767</v>
+        <v>4597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18851</v>
+        <v>19979</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01973630688730384</v>
+        <v>0.01973630688730385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00951374888030517</v>
+        <v>0.009174540297196266</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03762080447094593</v>
+        <v>0.0398725920143281</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -6924,19 +6924,19 @@
         <v>17191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8548</v>
+        <v>9419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28675</v>
+        <v>28829</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01757862530911666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008740305747551851</v>
+        <v>0.009631582932564031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02932084394229392</v>
+        <v>0.02947847954179797</v>
       </c>
     </row>
     <row r="8">
@@ -6953,19 +6953,19 @@
         <v>469588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>459978</v>
+        <v>459296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474473</v>
+        <v>474278</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9846885162779059</v>
+        <v>0.9846885162779061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9645368872684987</v>
+        <v>0.9631063107761944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.99493204799529</v>
+        <v>0.9945223124043742</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>452</v>
@@ -6974,19 +6974,19 @@
         <v>491193</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482232</v>
+        <v>481104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496316</v>
+        <v>496486</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9802636931126961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9623791955290535</v>
+        <v>0.9601274079856719</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9904862511196948</v>
+        <v>0.9908254597028038</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>749</v>
@@ -6995,19 +6995,19 @@
         <v>960782</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>949298</v>
+        <v>949144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>969425</v>
+        <v>968554</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9824213746908832</v>
+        <v>0.9824213746908833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9706791560577058</v>
+        <v>0.9705215204582021</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9912596942524479</v>
+        <v>0.9903684170674359</v>
       </c>
     </row>
     <row r="9">
@@ -7099,19 +7099,19 @@
         <v>18272</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11593</v>
+        <v>10762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27997</v>
+        <v>28285</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02943199494055737</v>
+        <v>0.02943199494055736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01867276946592515</v>
+        <v>0.01733535143693322</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04509626731052326</v>
+        <v>0.04555958043526984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -7120,19 +7120,19 @@
         <v>29664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21639</v>
+        <v>21751</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39217</v>
+        <v>39181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04768090656885448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03478181016112821</v>
+        <v>0.03496098797961532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06303640799553048</v>
+        <v>0.06297806856083865</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -7141,19 +7141,19 @@
         <v>47937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36235</v>
+        <v>36389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61006</v>
+        <v>62253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03856601163980728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02915153200591432</v>
+        <v>0.02927581671506515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04908029462561972</v>
+        <v>0.05008409370508045</v>
       </c>
     </row>
     <row r="11">
@@ -7170,19 +7170,19 @@
         <v>602565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>592840</v>
+        <v>592552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609244</v>
+        <v>610075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9705680050594427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9549037326894767</v>
+        <v>0.95444041956473</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9813272305340747</v>
+        <v>0.9826646485630666</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>805</v>
@@ -7191,19 +7191,19 @@
         <v>592475</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>582922</v>
+        <v>582958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>600500</v>
+        <v>600388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9523190934311456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9369635920044691</v>
+        <v>0.9370219314391613</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9652181898388716</v>
+        <v>0.9650390120203847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1334</v>
@@ -7212,19 +7212,19 @@
         <v>1195039</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1181970</v>
+        <v>1180723</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1206741</v>
+        <v>1206587</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9614339883601928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9509197053743803</v>
+        <v>0.9499159062949202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9708484679940856</v>
+        <v>0.970724183284935</v>
       </c>
     </row>
     <row r="12">
@@ -7316,19 +7316,19 @@
         <v>44876</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33186</v>
+        <v>31875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60570</v>
+        <v>59488</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06405176649964661</v>
+        <v>0.0640517664996466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04736710036773285</v>
+        <v>0.04549577189831179</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08645173796460526</v>
+        <v>0.08490739632045284</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -7337,19 +7337,19 @@
         <v>57874</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46408</v>
+        <v>46521</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70553</v>
+        <v>71144</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07853830305882568</v>
+        <v>0.07853830305882567</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06297821992705135</v>
+        <v>0.06313250677165726</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09574428200973659</v>
+        <v>0.09654625382272153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -7358,19 +7358,19 @@
         <v>102750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86260</v>
+        <v>84932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122593</v>
+        <v>121800</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0714777874845543</v>
+        <v>0.07147778748455431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06000673810092533</v>
+        <v>0.05908306494787861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08528165170658714</v>
+        <v>0.0847303757563769</v>
       </c>
     </row>
     <row r="14">
@@ -7387,19 +7387,19 @@
         <v>655741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>640047</v>
+        <v>641129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>667431</v>
+        <v>668742</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9359482335003534</v>
+        <v>0.9359482335003532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9135482620353946</v>
+        <v>0.915092603679547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9526328996322672</v>
+        <v>0.954504228101688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1053</v>
@@ -7408,19 +7408,19 @@
         <v>679012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>666333</v>
+        <v>665742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>690478</v>
+        <v>690365</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9214616969411744</v>
+        <v>0.9214616969411742</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9042557179902635</v>
+        <v>0.9034537461772786</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9370217800729487</v>
+        <v>0.9368674932283428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1680</v>
@@ -7429,19 +7429,19 @@
         <v>1334754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1314911</v>
+        <v>1315704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1351244</v>
+        <v>1352572</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9285222125154454</v>
+        <v>0.9285222125154458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9147183482934129</v>
+        <v>0.9152696242436232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9399932618990747</v>
+        <v>0.9409169350521214</v>
       </c>
     </row>
     <row r="15">
@@ -7533,19 +7533,19 @@
         <v>34892</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26011</v>
+        <v>25780</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46614</v>
+        <v>46839</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05735497099350298</v>
+        <v>0.05735497099350297</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04275647574651933</v>
+        <v>0.04237633747865743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07662261026343889</v>
+        <v>0.07699244415416166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -7554,19 +7554,19 @@
         <v>74116</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61402</v>
+        <v>62031</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87015</v>
+        <v>87276</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1221480719214099</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1011940710488344</v>
+        <v>0.1022316231103962</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1434074091003639</v>
+        <v>0.143837259766529</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -7575,19 +7575,19 @@
         <v>109008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93684</v>
+        <v>93478</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125803</v>
+        <v>125901</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08970915387884704</v>
+        <v>0.08970915387884705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07709799103963606</v>
+        <v>0.07692829706190629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1035305618703173</v>
+        <v>0.1036114667713878</v>
       </c>
     </row>
     <row r="17">
@@ -7604,19 +7604,19 @@
         <v>573467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>561745</v>
+        <v>561520</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>582348</v>
+        <v>582579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9426450290064972</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.923377389736561</v>
+        <v>0.9230075558458383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9572435242534806</v>
+        <v>0.9576236625213425</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>880</v>
@@ -7625,19 +7625,19 @@
         <v>532654</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>519755</v>
+        <v>519494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>545368</v>
+        <v>544739</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.87785192807859</v>
+        <v>0.8778519280785902</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8565925908996361</v>
+        <v>0.8561627402334709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8988059289511656</v>
+        <v>0.897768376889604</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1502</v>
@@ -7646,19 +7646,19 @@
         <v>1106121</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1089326</v>
+        <v>1089228</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1121445</v>
+        <v>1121651</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9102908461211531</v>
+        <v>0.9102908461211532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8964694381296828</v>
+        <v>0.8963885332286121</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9229020089603639</v>
+        <v>0.9230717029380938</v>
       </c>
     </row>
     <row r="18">
@@ -7750,19 +7750,19 @@
         <v>20063</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13246</v>
+        <v>13316</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28505</v>
+        <v>27704</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04928400657471349</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03253957457975496</v>
+        <v>0.0327113510386768</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07002381003192958</v>
+        <v>0.06805471945333778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -7771,19 +7771,19 @@
         <v>61210</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50918</v>
+        <v>51108</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72756</v>
+        <v>72235</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1393786225000914</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1159429084157107</v>
+        <v>0.1163748815428518</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1656680929891845</v>
+        <v>0.1644811571379422</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -7792,19 +7792,19 @@
         <v>81273</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69095</v>
+        <v>68819</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94964</v>
+        <v>95966</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09603933881334968</v>
+        <v>0.09603933881334971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08164838805167164</v>
+        <v>0.08132298975419729</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1122174284922242</v>
+        <v>0.1134024261049201</v>
       </c>
     </row>
     <row r="20">
@@ -7821,19 +7821,19 @@
         <v>387017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>378575</v>
+        <v>379376</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>393834</v>
+        <v>393764</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9507159934252863</v>
+        <v>0.9507159934252865</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9299761899680702</v>
+        <v>0.9319452805466628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9674604254202445</v>
+        <v>0.9672886489613235</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>715</v>
@@ -7842,19 +7842,19 @@
         <v>377956</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>366410</v>
+        <v>366931</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>388248</v>
+        <v>388058</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8606213774999087</v>
+        <v>0.8606213774999086</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8343319070108156</v>
+        <v>0.8355188428620578</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8840570915842894</v>
+        <v>0.8836251184571482</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1256</v>
@@ -7863,19 +7863,19 @@
         <v>764973</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>751282</v>
+        <v>750280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>777151</v>
+        <v>777427</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9039606611866502</v>
+        <v>0.9039606611866503</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8877825715077757</v>
+        <v>0.8865975738950799</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9183516119483283</v>
+        <v>0.9186770102458027</v>
       </c>
     </row>
     <row r="21">
@@ -7967,19 +7967,19 @@
         <v>25035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17881</v>
+        <v>17566</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33870</v>
+        <v>33253</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08083612520027501</v>
+        <v>0.080836125200275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0577369050571592</v>
+        <v>0.05671790910897274</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1093617378128194</v>
+        <v>0.1073716249225981</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>142</v>
@@ -7988,19 +7988,19 @@
         <v>78886</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67875</v>
+        <v>66905</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91777</v>
+        <v>93274</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1703506465943475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1465743159507792</v>
+        <v>0.1444789958974317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1981880358420793</v>
+        <v>0.2014203735619952</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>180</v>
@@ -8009,19 +8009,19 @@
         <v>103921</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88523</v>
+        <v>88298</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119157</v>
+        <v>119281</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1344764264720092</v>
+        <v>0.1344764264720093</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1145516881323533</v>
+        <v>0.1142601090792108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1541925582010265</v>
+        <v>0.1543531371088323</v>
       </c>
     </row>
     <row r="23">
@@ -8038,19 +8038,19 @@
         <v>284668</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>275833</v>
+        <v>276450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>291822</v>
+        <v>292137</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9191638747997251</v>
+        <v>0.9191638747997248</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8906382621871806</v>
+        <v>0.8926283750774018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9422630949428409</v>
+        <v>0.9432820908910272</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>736</v>
@@ -8059,19 +8059,19 @@
         <v>384193</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>371302</v>
+        <v>369805</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>395204</v>
+        <v>396174</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8296493534056526</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8018119641579207</v>
+        <v>0.7985796264380048</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8534256840492207</v>
+        <v>0.8555210041025684</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1155</v>
@@ -8080,19 +8080,19 @@
         <v>668861</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>653625</v>
+        <v>653501</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>684259</v>
+        <v>684484</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8655235735279907</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8458074417989735</v>
+        <v>0.8456468628911676</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8854483118676467</v>
+        <v>0.8857398909207893</v>
       </c>
     </row>
     <row r="24">
@@ -8184,19 +8184,19 @@
         <v>150440</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127848</v>
+        <v>128528</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>175428</v>
+        <v>177902</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04260220142732761</v>
+        <v>0.0426022014273276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03620433916357802</v>
+        <v>0.03639710590812335</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04967828967545175</v>
+        <v>0.05037896737454911</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>511</v>
@@ -8205,19 +8205,19 @@
         <v>314087</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>288087</v>
+        <v>290653</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>342515</v>
+        <v>344884</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08416877020835269</v>
+        <v>0.08416877020835266</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07720123231909302</v>
+        <v>0.07788883169725812</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09178685948479684</v>
+        <v>0.09242167545615469</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>678</v>
@@ -8226,19 +8226,19 @@
         <v>464527</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>430047</v>
+        <v>426577</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>502619</v>
+        <v>502269</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06395881662727775</v>
+        <v>0.06395881662727776</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05921133505176703</v>
+        <v>0.05873353348297853</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06920344312363322</v>
+        <v>0.06915528454445774</v>
       </c>
     </row>
     <row r="26">
@@ -8255,19 +8255,19 @@
         <v>3380840</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3355852</v>
+        <v>3353378</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3403432</v>
+        <v>3402752</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9573977985726724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9503217103245483</v>
+        <v>0.9496210326254508</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.963795660836422</v>
+        <v>0.9636028940918764</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4847</v>
@@ -8276,19 +8276,19 @@
         <v>3417548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3389120</v>
+        <v>3386751</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3443548</v>
+        <v>3440982</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9158312297916474</v>
+        <v>0.9158312297916473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9082131405152032</v>
+        <v>0.9075783245438452</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.922798767680907</v>
+        <v>0.9221111683027416</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8054</v>
@@ -8297,19 +8297,19 @@
         <v>6798388</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6760296</v>
+        <v>6760646</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6832868</v>
+        <v>6836338</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9360411833727221</v>
+        <v>0.9360411833727222</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.930796556876367</v>
+        <v>0.9308447154555423</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9407886649482331</v>
+        <v>0.9412664665170216</v>
       </c>
     </row>
     <row r="27">
